--- a/Code/Results/Cases/Case_5_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_73/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.403601919396806</v>
+        <v>1.625153034975597</v>
       </c>
       <c r="C2">
-        <v>0.5177681023997707</v>
+        <v>0.1858221518913012</v>
       </c>
       <c r="D2">
-        <v>0.07139381915410326</v>
+        <v>0.133060978564508</v>
       </c>
       <c r="E2">
-        <v>0.03894618050198773</v>
+        <v>0.1137359540516316</v>
       </c>
       <c r="F2">
-        <v>0.6483894673218842</v>
+        <v>1.471928477265259</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2853435002556566</v>
+        <v>0.8647057324363807</v>
       </c>
       <c r="J2">
-        <v>0.04287305676248465</v>
+        <v>0.1314700272970006</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3490279474899864</v>
+        <v>0.3616644208881752</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.594587422431914</v>
+        <v>3.715882654556964</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.962018294610004</v>
+        <v>1.488498657324328</v>
       </c>
       <c r="C3">
-        <v>0.4587133363421287</v>
+        <v>0.1663086030158638</v>
       </c>
       <c r="D3">
-        <v>0.06617433735144118</v>
+        <v>0.1320441260592702</v>
       </c>
       <c r="E3">
-        <v>0.03937182491493996</v>
+        <v>0.1145093657758265</v>
       </c>
       <c r="F3">
-        <v>0.6353799423310349</v>
+        <v>1.483164092666129</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3009863807398503</v>
+        <v>0.8782526259561507</v>
       </c>
       <c r="J3">
-        <v>0.04524422685720908</v>
+        <v>0.1329526615388834</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3103777519828697</v>
+        <v>0.3517483801026486</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.576164616426325</v>
+        <v>3.751506263169759</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.691238044698423</v>
+        <v>1.404576991406202</v>
       </c>
       <c r="C4">
-        <v>0.4224446136225026</v>
+        <v>0.1542672123199225</v>
       </c>
       <c r="D4">
-        <v>0.06301040980928718</v>
+        <v>0.1314520166541087</v>
       </c>
       <c r="E4">
-        <v>0.0396850220640248</v>
+        <v>0.1150229574208987</v>
       </c>
       <c r="F4">
-        <v>0.6290816975452742</v>
+        <v>1.490983473710273</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.311661408040667</v>
+        <v>0.8871437396526858</v>
       </c>
       <c r="J4">
-        <v>0.04677530160674603</v>
+        <v>0.1339139388602277</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2868201813743951</v>
+        <v>0.3457626284376545</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.569715148422787</v>
+        <v>3.775907542300132</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.580945625379059</v>
+        <v>1.370376729839279</v>
       </c>
       <c r="C5">
-        <v>0.4076581776380124</v>
+        <v>0.1493454704451835</v>
       </c>
       <c r="D5">
-        <v>0.0617307889631391</v>
+        <v>0.1312188800539644</v>
       </c>
       <c r="E5">
-        <v>0.03982541319039523</v>
+        <v>0.1152420000336614</v>
       </c>
       <c r="F5">
-        <v>0.6269200240163713</v>
+        <v>1.49440134721462</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3162699633140669</v>
+        <v>0.8909109525795067</v>
       </c>
       <c r="J5">
-        <v>0.04741778030446464</v>
+        <v>0.1343184849287083</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2772595639171271</v>
+        <v>0.3433494274880928</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.568250286746874</v>
+        <v>3.786486431882281</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.562633825635089</v>
+        <v>1.364697781428163</v>
       </c>
       <c r="C6">
-        <v>0.405202377575165</v>
+        <v>0.1485273355704351</v>
       </c>
       <c r="D6">
-        <v>0.06151887912868403</v>
+        <v>0.1311806616426878</v>
       </c>
       <c r="E6">
-        <v>0.03984948786776688</v>
+        <v>0.1152789611994214</v>
       </c>
       <c r="F6">
-        <v>0.6265849704019715</v>
+        <v>1.494982856386819</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3170505130332941</v>
+        <v>0.8915451892554103</v>
       </c>
       <c r="J6">
-        <v>0.04752557409557623</v>
+        <v>0.1343864339504586</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2756742791729891</v>
+        <v>0.3429502962748501</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.568075633412604</v>
+        <v>3.788281394248912</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.68975043518401</v>
+        <v>1.404115757664783</v>
       </c>
       <c r="C7">
-        <v>0.4222452310463325</v>
+        <v>0.1542008954075698</v>
       </c>
       <c r="D7">
-        <v>0.06299311382412753</v>
+        <v>0.1314488394215871</v>
       </c>
       <c r="E7">
-        <v>0.03968686411748301</v>
+        <v>0.1150258720094506</v>
       </c>
       <c r="F7">
-        <v>0.6290509306489014</v>
+        <v>1.491028631499567</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.311722528189641</v>
+        <v>0.8871939626931997</v>
       </c>
       <c r="J7">
-        <v>0.04678389162548657</v>
+        <v>0.133919342798311</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.286691090134525</v>
+        <v>0.3457299774485136</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.569690758622741</v>
+        <v>3.776047641897307</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.251247714855026</v>
+        <v>1.578039149006145</v>
       </c>
       <c r="C8">
-        <v>0.4974050864379933</v>
+        <v>0.1791065100528897</v>
       </c>
       <c r="D8">
-        <v>0.06958530789338369</v>
+        <v>0.1327037025413276</v>
       </c>
       <c r="E8">
-        <v>0.03908201057342442</v>
+        <v>0.1139946003789021</v>
       </c>
       <c r="F8">
-        <v>0.643540762099299</v>
+        <v>1.475611373455699</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.2905084232891113</v>
+        <v>0.869257636729774</v>
       </c>
       <c r="J8">
-        <v>0.04367482146697999</v>
+        <v>0.1319706744064177</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3356625308368564</v>
+        <v>0.358224167224634</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.58718945685095</v>
+        <v>3.727640591528427</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.356965418975619</v>
+        <v>1.918894934820344</v>
       </c>
       <c r="C9">
-        <v>0.6449454787879461</v>
+        <v>0.2274591484837174</v>
       </c>
       <c r="D9">
-        <v>0.08286483349773022</v>
+        <v>0.1354185305518527</v>
       </c>
       <c r="E9">
-        <v>0.03832043671527785</v>
+        <v>0.1122787943207477</v>
       </c>
       <c r="F9">
-        <v>0.6863158210315774</v>
+        <v>1.452688390071181</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2579087244344045</v>
+        <v>0.8386391077839228</v>
       </c>
       <c r="J9">
-        <v>0.03819067564115519</v>
+        <v>0.1285529823018092</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4332922990542727</v>
+        <v>0.3835328042515016</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.662915953198052</v>
+        <v>3.652802128671539</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.17495364951867</v>
+        <v>2.169105577986045</v>
       </c>
       <c r="C10">
-        <v>0.7537813875340191</v>
+        <v>0.2626752770324288</v>
       </c>
       <c r="D10">
-        <v>0.09287885950362806</v>
+        <v>0.1375658956400656</v>
       </c>
       <c r="E10">
-        <v>0.03803897988725602</v>
+        <v>0.1112041559391255</v>
       </c>
       <c r="F10">
-        <v>0.7279090589781276</v>
+        <v>1.440311556566542</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.240194508787301</v>
+        <v>0.8189279029200875</v>
       </c>
       <c r="J10">
-        <v>0.03455872174295815</v>
+        <v>0.1262873216949436</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.506325766322874</v>
+        <v>0.4026113619403446</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.747989816656627</v>
+        <v>3.610103593473127</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.548980283642265</v>
+        <v>2.282868830490315</v>
       </c>
       <c r="C11">
-        <v>0.8034734635812413</v>
+        <v>0.2786268128067491</v>
       </c>
       <c r="D11">
-        <v>0.09750078144875118</v>
+        <v>0.1385755415547294</v>
       </c>
       <c r="E11">
-        <v>0.0379758657448388</v>
+        <v>0.1107554668581852</v>
       </c>
       <c r="F11">
-        <v>0.7493759647481255</v>
+        <v>1.435652315916229</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2336689721702605</v>
+        <v>0.8105669614605269</v>
       </c>
       <c r="J11">
-        <v>0.03299832863405383</v>
+        <v>0.1253097210514655</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5399141018872768</v>
+        <v>0.4113943097949573</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.794087735635088</v>
+        <v>3.593355146968293</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.690950904014358</v>
+        <v>2.325937589928685</v>
       </c>
       <c r="C12">
-        <v>0.8223242512388254</v>
+        <v>0.284657144192181</v>
       </c>
       <c r="D12">
-        <v>0.09926145973684442</v>
+        <v>0.1389625437591633</v>
       </c>
       <c r="E12">
-        <v>0.03796170774661611</v>
+        <v>0.1105913215114143</v>
       </c>
       <c r="F12">
-        <v>0.7579014407851048</v>
+        <v>1.434027754013144</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2314345267664386</v>
+        <v>0.8074881550827833</v>
       </c>
       <c r="J12">
-        <v>0.03242116103446513</v>
+        <v>0.1249471488524221</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5526927380206956</v>
+        <v>0.4147349662546134</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.812698208987683</v>
+        <v>3.587398342472454</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.660359108955447</v>
+        <v>2.316662486322286</v>
       </c>
       <c r="C13">
-        <v>0.8182627849589608</v>
+        <v>0.2833588618410374</v>
       </c>
       <c r="D13">
-        <v>0.09888178607939579</v>
+        <v>0.1388789888739197</v>
       </c>
       <c r="E13">
-        <v>0.03796431689003477</v>
+        <v>0.1106264170206401</v>
       </c>
       <c r="F13">
-        <v>0.7560471884074502</v>
+        <v>1.434371412743715</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2319049588135655</v>
+        <v>0.8081473453840502</v>
       </c>
       <c r="J13">
-        <v>0.03254484558580062</v>
+        <v>0.1250248962795524</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5499378685012886</v>
+        <v>0.4140148437110014</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.808637262710278</v>
+        <v>3.588664091021258</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.56065322672157</v>
+        <v>2.286412356000369</v>
       </c>
       <c r="C14">
-        <v>0.8050236142485403</v>
+        <v>0.279123137450739</v>
       </c>
       <c r="D14">
-        <v>0.09764541856055331</v>
+        <v>0.13860728709912</v>
       </c>
       <c r="E14">
-        <v>0.03797450329108898</v>
+        <v>0.1107418470865511</v>
       </c>
       <c r="F14">
-        <v>0.7500692339768023</v>
+        <v>1.435515859709753</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2334803032380783</v>
+        <v>0.8103119154856309</v>
       </c>
       <c r="J14">
-        <v>0.03295056665197427</v>
+        <v>0.125279739257103</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5409641743410276</v>
+        <v>0.4116688533199095</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.79559515587124</v>
+        <v>3.592857347373382</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.49962593150974</v>
+        <v>2.267881783702592</v>
       </c>
       <c r="C15">
-        <v>0.7969188269203755</v>
+        <v>0.2765273000628952</v>
       </c>
       <c r="D15">
-        <v>0.09688949731531693</v>
+        <v>0.1384414689088587</v>
       </c>
       <c r="E15">
-        <v>0.03798202396361461</v>
+        <v>0.1108133015288288</v>
       </c>
       <c r="F15">
-        <v>0.7464601295110782</v>
+        <v>1.436235076118351</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2344765661271602</v>
+        <v>0.8116491519248896</v>
       </c>
       <c r="J15">
-        <v>0.0332008851965333</v>
+        <v>0.1254368306267235</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5354754876907037</v>
+        <v>0.4102337803744547</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.787759601524499</v>
+        <v>3.59547605984838</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.150553674388732</v>
+        <v>2.161669487703989</v>
       </c>
       <c r="C16">
-        <v>0.750538166615172</v>
+        <v>0.2616314012651912</v>
       </c>
       <c r="D16">
-        <v>0.09257821895807439</v>
+        <v>0.1375005690293278</v>
       </c>
       <c r="E16">
-        <v>0.03804444506361904</v>
+        <v>0.111234286037444</v>
       </c>
       <c r="F16">
-        <v>0.7265599175644297</v>
+        <v>1.440635602181942</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.240653170680293</v>
+        <v>0.8194865162553135</v>
       </c>
       <c r="J16">
-        <v>0.03466258789038856</v>
+        <v>0.1263522773796617</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5041386184480672</v>
+        <v>0.4020394505038496</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.745133640778249</v>
+        <v>3.611252043332939</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.936941149706001</v>
+        <v>2.096494863186251</v>
       </c>
       <c r="C17">
-        <v>0.7221367619695798</v>
+        <v>0.2524754839980403</v>
       </c>
       <c r="D17">
-        <v>0.08995103458155995</v>
+        <v>0.1369317257235849</v>
       </c>
       <c r="E17">
-        <v>0.03809964721777703</v>
+        <v>0.1115028255792687</v>
       </c>
       <c r="F17">
-        <v>0.7150247277856536</v>
+        <v>1.44358400159517</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2448460644136041</v>
+        <v>0.8244497763616963</v>
       </c>
       <c r="J17">
-        <v>0.03558316544767326</v>
+        <v>0.1269274598909287</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4850127475486943</v>
+        <v>0.3970389838449222</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.720940877344049</v>
+        <v>3.621615856110878</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.814253762368025</v>
+        <v>2.059002751585638</v>
       </c>
       <c r="C18">
-        <v>0.7058176898140118</v>
+        <v>0.2472028182017709</v>
       </c>
       <c r="D18">
-        <v>0.08844614843216902</v>
+        <v>0.1366076319623346</v>
       </c>
       <c r="E18">
-        <v>0.03813748295189257</v>
+        <v>0.1116610641109048</v>
       </c>
       <c r="F18">
-        <v>0.7086276823595625</v>
+        <v>1.445371232821373</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2474009358418705</v>
+        <v>0.827361520278906</v>
       </c>
       <c r="J18">
-        <v>0.03612126497135959</v>
+        <v>0.1272632842407435</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4740459630885425</v>
+        <v>0.3941726508159746</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.707716311186914</v>
+        <v>3.627828616754016</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.772742588555559</v>
+        <v>2.046307716041781</v>
       </c>
       <c r="C19">
-        <v>0.7002949824326379</v>
+        <v>0.2454164907249776</v>
       </c>
       <c r="D19">
-        <v>0.08793765868524872</v>
+        <v>0.1364984314518196</v>
       </c>
       <c r="E19">
-        <v>0.03815132662300513</v>
+        <v>0.1117152908591894</v>
       </c>
       <c r="F19">
-        <v>0.7065016888694231</v>
+        <v>1.445992050116431</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2482900961588719</v>
+        <v>0.8283571721350356</v>
       </c>
       <c r="J19">
-        <v>0.0363049193724656</v>
+        <v>0.12737784660384</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4703384190589048</v>
+        <v>0.3932038499028607</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.70335464361716</v>
+        <v>3.629975369257693</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.959661849983206</v>
+        <v>2.103433389079328</v>
       </c>
       <c r="C20">
-        <v>0.7251583644089976</v>
+        <v>0.2534508142809671</v>
       </c>
       <c r="D20">
-        <v>0.09023005481895296</v>
+        <v>0.1369919606042913</v>
       </c>
       <c r="E20">
-        <v>0.03809313823057536</v>
+        <v>0.1114738477890196</v>
       </c>
       <c r="F20">
-        <v>0.7162278558913542</v>
+        <v>1.443260679795749</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2443847862350985</v>
+        <v>0.8239155273623417</v>
       </c>
       <c r="J20">
-        <v>0.03548427389196807</v>
+        <v>0.1268657138535596</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4870451708062404</v>
+        <v>0.3975702790152837</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.723444143627404</v>
+        <v>3.620486547815915</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.589929680340219</v>
+        <v>2.295297868254579</v>
       </c>
       <c r="C21">
-        <v>0.8089113097562688</v>
+        <v>0.2803675509378252</v>
       </c>
       <c r="D21">
-        <v>0.0980082783888605</v>
+        <v>0.138686966080563</v>
       </c>
       <c r="E21">
-        <v>0.03797124353224213</v>
+        <v>0.1107077861611039</v>
       </c>
       <c r="F21">
-        <v>0.7518140921721113</v>
+        <v>1.435175912752712</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2330110288702549</v>
+        <v>0.8096737579509217</v>
       </c>
       <c r="J21">
-        <v>0.03283101988736226</v>
+        <v>0.1252046788323284</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5435982937217858</v>
+        <v>0.4123575290860941</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.799393858942693</v>
+        <v>3.591615218791958</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.003828810047821</v>
+        <v>2.420627649643563</v>
       </c>
       <c r="C22">
-        <v>0.8638476816851153</v>
+        <v>0.2978997729860566</v>
       </c>
       <c r="D22">
-        <v>0.1031532146481879</v>
+        <v>0.1398219567278005</v>
       </c>
       <c r="E22">
-        <v>0.03794857026352361</v>
+        <v>0.1102407085991501</v>
       </c>
       <c r="F22">
-        <v>0.7773981851316307</v>
+        <v>1.430706933339806</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2269653280346375</v>
+        <v>0.8008748814609277</v>
       </c>
       <c r="J22">
-        <v>0.03117719940251629</v>
+        <v>0.1241635319389398</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5809092664880922</v>
+        <v>0.4221076975886291</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.855805997500738</v>
+        <v>3.574993292916758</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.78272090776386</v>
+        <v>2.353743516891598</v>
       </c>
       <c r="C23">
-        <v>0.8345063206951124</v>
+        <v>0.2885480397073934</v>
       </c>
       <c r="D23">
-        <v>0.1004013310005121</v>
+        <v>0.139213716324015</v>
       </c>
       <c r="E23">
-        <v>0.03795531525071105</v>
+        <v>0.1104869276063525</v>
       </c>
       <c r="F23">
-        <v>0.7635199757729652</v>
+        <v>1.433017498439781</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2300593731661102</v>
+        <v>0.8055243765186688</v>
       </c>
       <c r="J23">
-        <v>0.0320523521589231</v>
+        <v>0.1247151477218618</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5609612002280926</v>
+        <v>0.4168960641976298</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.825046167889496</v>
+        <v>3.583658862588749</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.949389447955753</v>
+        <v>2.100296550960991</v>
       </c>
       <c r="C24">
-        <v>0.7237922696043029</v>
+        <v>0.2530098948684554</v>
       </c>
       <c r="D24">
-        <v>0.09010389265186802</v>
+        <v>0.1369647192491996</v>
       </c>
       <c r="E24">
-        <v>0.03809606197622628</v>
+        <v>0.111486936649916</v>
       </c>
       <c r="F24">
-        <v>0.7156831929369076</v>
+        <v>1.44340656652728</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2445928817846088</v>
+        <v>0.8241568797472887</v>
       </c>
       <c r="J24">
-        <v>0.03552895524599498</v>
+        <v>0.1268936132122178</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4861262226502419</v>
+        <v>0.3973300539719986</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.722310292642817</v>
+        <v>3.62099631549674</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.057068725224042</v>
+        <v>1.826715976498349</v>
       </c>
       <c r="C25">
-        <v>0.6049816597916049</v>
+        <v>0.2144318424827532</v>
       </c>
       <c r="D25">
-        <v>0.07923042565775518</v>
+        <v>0.1346571176349585</v>
       </c>
       <c r="E25">
-        <v>0.03847909288934304</v>
+        <v>0.1127102435519767</v>
       </c>
       <c r="F25">
-        <v>0.6730665924843038</v>
+        <v>1.458106206644224</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2656898132442684</v>
+        <v>0.8464338436636503</v>
       </c>
       <c r="J25">
-        <v>0.03960632794502317</v>
+        <v>0.1294344242990135</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4066771488992487</v>
+        <v>0.3766005252826687</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.637580957850872</v>
+        <v>3.67089332168166</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_73/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_73/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.625153034975597</v>
+        <v>3.403601919396806</v>
       </c>
       <c r="C2">
-        <v>0.1858221518913012</v>
+        <v>0.517768102399998</v>
       </c>
       <c r="D2">
-        <v>0.133060978564508</v>
+        <v>0.07139381915394694</v>
       </c>
       <c r="E2">
-        <v>0.1137359540516316</v>
+        <v>0.03894618050197263</v>
       </c>
       <c r="F2">
-        <v>1.471928477265259</v>
+        <v>0.6483894673219055</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,16 +442,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8647057324363807</v>
+        <v>0.2853435002556886</v>
       </c>
       <c r="J2">
-        <v>0.1314700272970006</v>
+        <v>0.04287305676241449</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3616644208881752</v>
+        <v>0.3490279474900291</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.715882654556964</v>
+        <v>1.594587422431971</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.488498657324328</v>
+        <v>2.962018294610061</v>
       </c>
       <c r="C3">
-        <v>0.1663086030158638</v>
+        <v>0.4587133363421287</v>
       </c>
       <c r="D3">
-        <v>0.1320441260592702</v>
+        <v>0.06617433735128486</v>
       </c>
       <c r="E3">
-        <v>0.1145093657758265</v>
+        <v>0.03937182491492486</v>
       </c>
       <c r="F3">
-        <v>1.483164092666129</v>
+        <v>0.635379942331042</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,16 +489,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8782526259561507</v>
+        <v>0.3009863807398716</v>
       </c>
       <c r="J3">
-        <v>0.1329526615388834</v>
+        <v>0.0452442268572204</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3517483801026486</v>
+        <v>0.3103777519827986</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.751506263169759</v>
+        <v>1.576164616426354</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.404576991406202</v>
+        <v>2.691238044698423</v>
       </c>
       <c r="C4">
-        <v>0.1542672123199225</v>
+        <v>0.4224446136223321</v>
       </c>
       <c r="D4">
-        <v>0.1314520166541087</v>
+        <v>0.06301040980920192</v>
       </c>
       <c r="E4">
-        <v>0.1150229574208987</v>
+        <v>0.03968502206403457</v>
       </c>
       <c r="F4">
-        <v>1.490983473710273</v>
+        <v>0.6290816975453026</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,16 +536,16 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8871437396526858</v>
+        <v>0.3116614080406777</v>
       </c>
       <c r="J4">
-        <v>0.1339139388602277</v>
+        <v>0.04677530160667409</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3457626284376545</v>
+        <v>0.2868201813743241</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.775907542300132</v>
+        <v>1.569715148422773</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.370376729839279</v>
+        <v>2.580945625379002</v>
       </c>
       <c r="C5">
-        <v>0.1493454704451835</v>
+        <v>0.4076581776380692</v>
       </c>
       <c r="D5">
-        <v>0.1312188800539644</v>
+        <v>0.06173078896291173</v>
       </c>
       <c r="E5">
-        <v>0.1152420000336614</v>
+        <v>0.03982541319038102</v>
       </c>
       <c r="F5">
-        <v>1.49440134721462</v>
+        <v>0.6269200240163642</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,16 +583,16 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8909109525795067</v>
+        <v>0.3162699633140633</v>
       </c>
       <c r="J5">
-        <v>0.1343184849287083</v>
+        <v>0.04741778030435251</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3433494274880928</v>
+        <v>0.2772595639171413</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.786486431882281</v>
+        <v>1.568250286746832</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.364697781428163</v>
+        <v>2.562633825635032</v>
       </c>
       <c r="C6">
-        <v>0.1485273355704351</v>
+        <v>0.4052023775749376</v>
       </c>
       <c r="D6">
-        <v>0.1311806616426878</v>
+        <v>0.06151887912891851</v>
       </c>
       <c r="E6">
-        <v>0.1152789611994214</v>
+        <v>0.03984948786777842</v>
       </c>
       <c r="F6">
-        <v>1.494982856386819</v>
+        <v>0.6265849704019857</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,16 +630,16 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8915451892554103</v>
+        <v>0.3170505130333012</v>
       </c>
       <c r="J6">
-        <v>0.1343864339504586</v>
+        <v>0.04752557409556801</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3429502962748501</v>
+        <v>0.2756742791729607</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.788281394248912</v>
+        <v>1.568075633412647</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.404115757664783</v>
+        <v>2.68975043518401</v>
       </c>
       <c r="C7">
-        <v>0.1542008954075698</v>
+        <v>0.4222452310465599</v>
       </c>
       <c r="D7">
-        <v>0.1314488394215871</v>
+        <v>0.06299311382414174</v>
       </c>
       <c r="E7">
-        <v>0.1150258720094506</v>
+        <v>0.03968686411747857</v>
       </c>
       <c r="F7">
-        <v>1.491028631499567</v>
+        <v>0.6290509306489014</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,16 +677,16 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8871939626931997</v>
+        <v>0.311722528189641</v>
       </c>
       <c r="J7">
-        <v>0.133919342798311</v>
+        <v>0.0467838916254828</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3457299774485136</v>
+        <v>0.2866910901345108</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.776047641897307</v>
+        <v>1.56969075862267</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.578039149006145</v>
+        <v>3.251247714854969</v>
       </c>
       <c r="C8">
-        <v>0.1791065100528897</v>
+        <v>0.4974050864377944</v>
       </c>
       <c r="D8">
-        <v>0.1327037025413276</v>
+        <v>0.06958530789350448</v>
       </c>
       <c r="E8">
-        <v>0.1139946003789021</v>
+        <v>0.03908201057339777</v>
       </c>
       <c r="F8">
-        <v>1.475611373455699</v>
+        <v>0.643540762099299</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.869257636729774</v>
+        <v>0.2905084232891078</v>
       </c>
       <c r="J8">
-        <v>0.1319706744064177</v>
+        <v>0.04367482146699619</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.358224167224634</v>
+        <v>0.3356625308367995</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.727640591528427</v>
+        <v>1.587189456850894</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.918894934820344</v>
+        <v>4.356965418975619</v>
       </c>
       <c r="C9">
-        <v>0.2274591484837174</v>
+        <v>0.6449454787877187</v>
       </c>
       <c r="D9">
-        <v>0.1354185305518527</v>
+        <v>0.08286483349785101</v>
       </c>
       <c r="E9">
-        <v>0.1122787943207477</v>
+        <v>0.03832043671530982</v>
       </c>
       <c r="F9">
-        <v>1.452688390071181</v>
+        <v>0.6863158210315916</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,16 +771,16 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8386391077839228</v>
+        <v>0.2579087244344187</v>
       </c>
       <c r="J9">
-        <v>0.1285529823018092</v>
+        <v>0.03819067564120049</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3835328042515016</v>
+        <v>0.4332922990543153</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.652802128671539</v>
+        <v>1.662915953198024</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.169105577986045</v>
+        <v>5.174953649518613</v>
       </c>
       <c r="C10">
-        <v>0.2626752770324288</v>
+        <v>0.7537813875345876</v>
       </c>
       <c r="D10">
-        <v>0.1375658956400656</v>
+        <v>0.09287885950355701</v>
       </c>
       <c r="E10">
-        <v>0.1112041559391255</v>
+        <v>0.03803897988726845</v>
       </c>
       <c r="F10">
-        <v>1.440311556566542</v>
+        <v>0.7279090589781347</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,16 +818,16 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8189279029200875</v>
+        <v>0.240194508787301</v>
       </c>
       <c r="J10">
-        <v>0.1262873216949436</v>
+        <v>0.03455872174305208</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4026113619403446</v>
+        <v>0.506325766322945</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.610103593473127</v>
+        <v>1.747989816656627</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.282868830490315</v>
+        <v>5.548980283642322</v>
       </c>
       <c r="C11">
-        <v>0.2786268128067491</v>
+        <v>0.8034734635812129</v>
       </c>
       <c r="D11">
-        <v>0.1385755415547294</v>
+        <v>0.09750078144858065</v>
       </c>
       <c r="E11">
-        <v>0.1107554668581852</v>
+        <v>0.0379758657448388</v>
       </c>
       <c r="F11">
-        <v>1.435652315916229</v>
+        <v>0.7493759647481255</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8105669614605269</v>
+        <v>0.2336689721702463</v>
       </c>
       <c r="J11">
-        <v>0.1253097210514655</v>
+        <v>0.03299832863408136</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4113943097949573</v>
+        <v>0.5399141018872626</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.593355146968293</v>
+        <v>1.794087735635088</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.325937589928685</v>
+        <v>5.690950904014358</v>
       </c>
       <c r="C12">
-        <v>0.284657144192181</v>
+        <v>0.8223242512388254</v>
       </c>
       <c r="D12">
-        <v>0.1389625437591633</v>
+        <v>0.09926145973660283</v>
       </c>
       <c r="E12">
-        <v>0.1105913215114143</v>
+        <v>0.03796170774661967</v>
       </c>
       <c r="F12">
-        <v>1.434027754013144</v>
+        <v>0.7579014407851048</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,16 +912,16 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8074881550827833</v>
+        <v>0.2314345267664422</v>
       </c>
       <c r="J12">
-        <v>0.1249471488524221</v>
+        <v>0.03242116103442605</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4147349662546134</v>
+        <v>0.5526927380207098</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.587398342472454</v>
+        <v>1.812698208987683</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.316662486322286</v>
+        <v>5.660359108955504</v>
       </c>
       <c r="C13">
-        <v>0.2833588618410374</v>
+        <v>0.8182627849587618</v>
       </c>
       <c r="D13">
-        <v>0.1388789888739197</v>
+        <v>0.09888178607934606</v>
       </c>
       <c r="E13">
-        <v>0.1106264170206401</v>
+        <v>0.03796431689002056</v>
       </c>
       <c r="F13">
-        <v>1.434371412743715</v>
+        <v>0.7560471884074502</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,16 +959,16 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8081473453840502</v>
+        <v>0.2319049588135798</v>
       </c>
       <c r="J13">
-        <v>0.1250248962795524</v>
+        <v>0.03254484558583126</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4140148437110014</v>
+        <v>0.5499378685012459</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.588664091021258</v>
+        <v>1.808637262710334</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.286412356000369</v>
+        <v>5.560653226721797</v>
       </c>
       <c r="C14">
-        <v>0.279123137450739</v>
+        <v>0.8050236142485971</v>
       </c>
       <c r="D14">
-        <v>0.13860728709912</v>
+        <v>0.09764541856076647</v>
       </c>
       <c r="E14">
-        <v>0.1107418470865511</v>
+        <v>0.0379745032910872</v>
       </c>
       <c r="F14">
-        <v>1.435515859709753</v>
+        <v>0.750069233976788</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,16 +1006,16 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8103119154856309</v>
+        <v>0.2334803032380748</v>
       </c>
       <c r="J14">
-        <v>0.125279739257103</v>
+        <v>0.03295056665208174</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4116688533199095</v>
+        <v>0.540964174341056</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.592857347373382</v>
+        <v>1.79559515587124</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.267881783702592</v>
+        <v>5.499625931509627</v>
       </c>
       <c r="C15">
-        <v>0.2765273000628952</v>
+        <v>0.7969188269201197</v>
       </c>
       <c r="D15">
-        <v>0.1384414689088587</v>
+        <v>0.09688949731513219</v>
       </c>
       <c r="E15">
-        <v>0.1108133015288288</v>
+        <v>0.03798202396364125</v>
       </c>
       <c r="F15">
-        <v>1.436235076118351</v>
+        <v>0.746460129511064</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8116491519248896</v>
+        <v>0.2344765661271673</v>
       </c>
       <c r="J15">
-        <v>0.1254368306267235</v>
+        <v>0.0332008851966088</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4102337803744547</v>
+        <v>0.5354754876907037</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.59547605984838</v>
+        <v>1.787759601524414</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.161669487703989</v>
+        <v>5.150553674388732</v>
       </c>
       <c r="C16">
-        <v>0.2616314012651912</v>
+        <v>0.7505381666153426</v>
       </c>
       <c r="D16">
-        <v>0.1375005690293278</v>
+        <v>0.09257821895823781</v>
       </c>
       <c r="E16">
-        <v>0.111234286037444</v>
+        <v>0.03804444506360838</v>
       </c>
       <c r="F16">
-        <v>1.440635602181942</v>
+        <v>0.7265599175644084</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8194865162553135</v>
+        <v>0.2406531706803001</v>
       </c>
       <c r="J16">
-        <v>0.1263522773796617</v>
+        <v>0.03466258789041232</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4020394505038496</v>
+        <v>0.5041386184481098</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.611252043332939</v>
+        <v>1.745133640778192</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.096494863186251</v>
+        <v>4.936941149706172</v>
       </c>
       <c r="C17">
-        <v>0.2524754839980403</v>
+        <v>0.7221367619700061</v>
       </c>
       <c r="D17">
-        <v>0.1369317257235849</v>
+        <v>0.08995103458166653</v>
       </c>
       <c r="E17">
-        <v>0.1115028255792687</v>
+        <v>0.03809964721778414</v>
       </c>
       <c r="F17">
-        <v>1.44358400159517</v>
+        <v>0.7150247277856607</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8244497763616963</v>
+        <v>0.2448460644136077</v>
       </c>
       <c r="J17">
-        <v>0.1269274598909287</v>
+        <v>0.03558316544775675</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3970389838449222</v>
+        <v>0.4850127475485948</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.621615856110878</v>
+        <v>1.720940877344106</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.059002751585638</v>
+        <v>4.814253762368082</v>
       </c>
       <c r="C18">
-        <v>0.2472028182017709</v>
+        <v>0.7058176898142392</v>
       </c>
       <c r="D18">
-        <v>0.1366076319623346</v>
+        <v>0.08844614843212639</v>
       </c>
       <c r="E18">
-        <v>0.1116610641109048</v>
+        <v>0.03813748295186414</v>
       </c>
       <c r="F18">
-        <v>1.445371232821373</v>
+        <v>0.7086276823595838</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.827361520278906</v>
+        <v>0.2474009358418812</v>
       </c>
       <c r="J18">
-        <v>0.1272632842407435</v>
+        <v>0.03612126497139956</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3941726508159746</v>
+        <v>0.4740459630885709</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.627828616754016</v>
+        <v>1.707716311186942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.046307716041781</v>
+        <v>4.77274258855573</v>
       </c>
       <c r="C19">
-        <v>0.2454164907249776</v>
+        <v>0.7002949824323537</v>
       </c>
       <c r="D19">
-        <v>0.1364984314518196</v>
+        <v>0.08793765868524872</v>
       </c>
       <c r="E19">
-        <v>0.1117152908591894</v>
+        <v>0.03815132662299803</v>
       </c>
       <c r="F19">
-        <v>1.445992050116431</v>
+        <v>0.706501688869416</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8283571721350356</v>
+        <v>0.2482900961588754</v>
       </c>
       <c r="J19">
-        <v>0.12737784660384</v>
+        <v>0.03630491937250246</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3932038499028607</v>
+        <v>0.4703384190589759</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.629975369257693</v>
+        <v>1.70335464361716</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.103433389079328</v>
+        <v>4.959661849983377</v>
       </c>
       <c r="C20">
-        <v>0.2534508142809671</v>
+        <v>0.7251583644085997</v>
       </c>
       <c r="D20">
-        <v>0.1369919606042913</v>
+        <v>0.0902300548190027</v>
       </c>
       <c r="E20">
-        <v>0.1114738477890196</v>
+        <v>0.03809313823060378</v>
       </c>
       <c r="F20">
-        <v>1.443260679795749</v>
+        <v>0.7162278558913258</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,16 +1288,16 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8239155273623417</v>
+        <v>0.244384786235095</v>
       </c>
       <c r="J20">
-        <v>0.1268657138535596</v>
+        <v>0.0354842738919372</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3975702790152837</v>
+        <v>0.4870451708061836</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.620486547815915</v>
+        <v>1.723444143627461</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.295297868254579</v>
+        <v>5.589929680340163</v>
       </c>
       <c r="C21">
-        <v>0.2803675509378252</v>
+        <v>0.8089113097559846</v>
       </c>
       <c r="D21">
-        <v>0.138686966080563</v>
+        <v>0.09800827838903814</v>
       </c>
       <c r="E21">
-        <v>0.1107077861611039</v>
+        <v>0.03797124353225811</v>
       </c>
       <c r="F21">
-        <v>1.435175912752712</v>
+        <v>0.7518140921721255</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8096737579509217</v>
+        <v>0.2330110288702585</v>
       </c>
       <c r="J21">
-        <v>0.1252046788323284</v>
+        <v>0.03283101988736936</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4123575290860941</v>
+        <v>0.5435982937217574</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.591615218791958</v>
+        <v>1.799393858942636</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.420627649643563</v>
+        <v>6.003828810048105</v>
       </c>
       <c r="C22">
-        <v>0.2978997729860566</v>
+        <v>0.8638476816854563</v>
       </c>
       <c r="D22">
-        <v>0.1398219567278005</v>
+        <v>0.1031532146480245</v>
       </c>
       <c r="E22">
-        <v>0.1102407085991501</v>
+        <v>0.0379485702635094</v>
       </c>
       <c r="F22">
-        <v>1.430706933339806</v>
+        <v>0.7773981851316449</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,16 +1382,16 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8008748814609277</v>
+        <v>0.2269653280346304</v>
       </c>
       <c r="J22">
-        <v>0.1241635319389398</v>
+        <v>0.03117719940255403</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4221076975886291</v>
+        <v>0.5809092664881064</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.574993292916758</v>
+        <v>1.855805997500738</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.353743516891598</v>
+        <v>5.782720907763633</v>
       </c>
       <c r="C23">
-        <v>0.2885480397073934</v>
+        <v>0.8345063206949135</v>
       </c>
       <c r="D23">
-        <v>0.139213716324015</v>
+        <v>0.1004013310006187</v>
       </c>
       <c r="E23">
-        <v>0.1104869276063525</v>
+        <v>0.03795531525069151</v>
       </c>
       <c r="F23">
-        <v>1.433017498439781</v>
+        <v>0.7635199757729794</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8055243765186688</v>
+        <v>0.2300593731661138</v>
       </c>
       <c r="J23">
-        <v>0.1247151477218618</v>
+        <v>0.03205235215888758</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4168960641976298</v>
+        <v>0.5609612002282063</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.583658862588749</v>
+        <v>1.825046167889468</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.100296550960991</v>
+        <v>4.949389447955866</v>
       </c>
       <c r="C24">
-        <v>0.2530098948684554</v>
+        <v>0.7237922696040471</v>
       </c>
       <c r="D24">
-        <v>0.1369647192491996</v>
+        <v>0.09010389265192487</v>
       </c>
       <c r="E24">
-        <v>0.111486936649916</v>
+        <v>0.03809606197621562</v>
       </c>
       <c r="F24">
-        <v>1.44340656652728</v>
+        <v>0.7156831929369147</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8241568797472887</v>
+        <v>0.2445928817845839</v>
       </c>
       <c r="J24">
-        <v>0.1268936132122178</v>
+        <v>0.03552895524596877</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3973300539719986</v>
+        <v>0.4861262226502134</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.62099631549674</v>
+        <v>1.722310292642817</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.826715976498349</v>
+        <v>4.057068725223928</v>
       </c>
       <c r="C25">
-        <v>0.2144318424827532</v>
+        <v>0.6049816597916902</v>
       </c>
       <c r="D25">
-        <v>0.1346571176349585</v>
+        <v>0.07923042565774807</v>
       </c>
       <c r="E25">
-        <v>0.1127102435519767</v>
+        <v>0.03847909288934481</v>
       </c>
       <c r="F25">
-        <v>1.458106206644224</v>
+        <v>0.673066592484318</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,16 +1523,16 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8464338436636503</v>
+        <v>0.2656898132442755</v>
       </c>
       <c r="J25">
-        <v>0.1294344242990135</v>
+        <v>0.03960632794505869</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3766005252826687</v>
+        <v>0.4066771488992202</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.67089332168166</v>
+        <v>1.637580957850901</v>
       </c>
     </row>
   </sheetData>
